--- a/ergos_assistant/train_data.xlsx
+++ b/ergos_assistant/train_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7339" uniqueCount="6797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7346" uniqueCount="6804">
   <si>
     <t>English_Phrase</t>
   </si>
@@ -16249,6 +16249,15 @@
     <t>Kindly loan</t>
   </si>
   <si>
+    <t>I want to take loan on my stock</t>
+  </si>
+  <si>
+    <t>I want to take a loan against my stocks</t>
+  </si>
+  <si>
+    <t>Can you help me get a loan on my stock</t>
+  </si>
+  <si>
     <t>I want to create a spot purchase</t>
   </si>
   <si>
@@ -20411,6 +20420,18 @@
   </si>
   <si>
     <t>Record a release now</t>
+  </si>
+  <si>
+    <t>I want to make a grain withdrawal request</t>
+  </si>
+  <si>
+    <t>I want to clear my grain</t>
+  </si>
+  <si>
+    <t>I want to get my grains out</t>
+  </si>
+  <si>
+    <t>i want to extract my grains</t>
   </si>
 </sst>
 </file>
@@ -25024,3717 +25045,3737 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>6054</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>6055</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>6056</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>6057</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>6058</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>6059</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>6060</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>6061</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>6062</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>6063</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>6064</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>6065</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>6066</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>6067</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>6068</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>6069</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>6070</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>6071</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>6072</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>6073</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>6074</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>6075</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>6076</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>6077</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>6078</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>6079</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>6080</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>6081</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>6082</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>6083</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>6084</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>6085</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>6086</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>6087</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>6088</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>6089</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>6090</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>6091</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>6092</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>6093</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>6094</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>6095</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>6096</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>6097</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>6098</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>6099</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>6100</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>6101</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>6102</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>6103</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>6104</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>6105</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>6106</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>6107</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>6108</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>6109</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>6110</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>6111</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>6112</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>6113</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>6114</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>6115</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>6116</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>6117</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>6118</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>6119</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>6120</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>6121</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>6122</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>6123</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>6124</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>6125</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>6126</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>6127</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>6128</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>6129</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>6130</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>6131</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>6132</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
-        <v>6133</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>6134</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>6135</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
-        <v>6136</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>6137</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>6138</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>6139</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>6140</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>6141</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>6142</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>6143</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>6144</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>6145</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>6146</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>6147</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>6148</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>6149</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>6150</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>6151</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="s">
-        <v>6152</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>6153</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>6154</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
-        <v>6155</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="s">
-        <v>6156</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>6157</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
-        <v>6158</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="s">
-        <v>6159</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="s">
-        <v>6160</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="s">
-        <v>6161</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="s">
-        <v>6162</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="s">
-        <v>6163</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="s">
-        <v>6164</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="s">
-        <v>6165</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>6166</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="s">
-        <v>6167</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
-        <v>6168</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="s">
-        <v>6169</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="s">
-        <v>6170</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
-        <v>6171</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="s">
-        <v>6172</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="s">
-        <v>6173</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="s">
-        <v>6174</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="s">
-        <v>6175</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
-        <v>6176</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
-        <v>6177</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="s">
-        <v>6178</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>6179</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
-        <v>6180</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="s">
-        <v>6181</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6" t="s">
-        <v>6182</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="s">
-        <v>6183</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
-        <v>6184</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="s">
-        <v>6185</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
-        <v>6186</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="s">
-        <v>6187</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="s">
-        <v>6188</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="s">
-        <v>6189</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="s">
-        <v>6190</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>6191</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="s">
-        <v>6192</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
-        <v>6193</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="s">
-        <v>6194</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
-        <v>6195</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="s">
-        <v>6196</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="s">
-        <v>6197</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="s">
-        <v>6198</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="s">
-        <v>6199</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="s">
-        <v>6200</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="s">
-        <v>6201</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="s">
-        <v>6202</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="s">
-        <v>6203</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>6204</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="s">
-        <v>6205</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="s">
-        <v>6206</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="s">
-        <v>6207</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="s">
-        <v>6208</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="s">
-        <v>6209</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="s">
-        <v>6210</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="s">
-        <v>6211</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="s">
-        <v>6212</v>
+        <v>6215</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="s">
-        <v>6213</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="s">
-        <v>6214</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="s">
-        <v>6215</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>6216</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="s">
-        <v>6217</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="s">
-        <v>6218</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="s">
-        <v>6219</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="s">
-        <v>6220</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="s">
-        <v>6221</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="s">
-        <v>6222</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="s">
-        <v>6223</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="s">
-        <v>6224</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="s">
-        <v>6225</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="s">
-        <v>6226</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="s">
-        <v>6227</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="s">
-        <v>6228</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>6229</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6" t="s">
-        <v>6230</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="s">
-        <v>6231</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="s">
-        <v>6232</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="s">
-        <v>6233</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="s">
-        <v>6234</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6" t="s">
-        <v>6235</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="s">
-        <v>6236</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6" t="s">
-        <v>6237</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="s">
-        <v>6238</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="s">
-        <v>6239</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="s">
-        <v>6240</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>6241</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6" t="s">
-        <v>6242</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="s">
-        <v>6243</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="s">
-        <v>6244</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="s">
-        <v>6245</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="s">
-        <v>6246</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="s">
-        <v>6247</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="s">
-        <v>6248</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6" t="s">
-        <v>6249</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="s">
-        <v>6250</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6" t="s">
-        <v>6251</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6" t="s">
-        <v>6252</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6" t="s">
-        <v>6253</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>6254</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="s">
-        <v>6255</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="s">
-        <v>6256</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6" t="s">
-        <v>6257</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="s">
-        <v>6258</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6" t="s">
-        <v>6259</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="s">
-        <v>6260</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="s">
-        <v>6261</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="s">
-        <v>6262</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="s">
-        <v>6263</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="s">
-        <v>6264</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6" t="s">
-        <v>6265</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>6266</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6" t="s">
-        <v>6267</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="s">
-        <v>6268</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6" t="s">
-        <v>6269</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6" t="s">
-        <v>6270</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6" t="s">
-        <v>6271</v>
+        <v>6274</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6" t="s">
-        <v>6272</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="s">
-        <v>6273</v>
+        <v>6276</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6" t="s">
-        <v>6274</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="s">
-        <v>6275</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="s">
-        <v>6276</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="s">
-        <v>6277</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6" t="s">
-        <v>6278</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>6279</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6" t="s">
-        <v>6280</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6" t="s">
-        <v>6281</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6" t="s">
-        <v>6282</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="s">
-        <v>6283</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6" t="s">
-        <v>6284</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6" t="s">
-        <v>6285</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="s">
-        <v>6286</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="s">
-        <v>6287</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="s">
-        <v>6288</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6" t="s">
-        <v>6289</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6" t="s">
-        <v>6290</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>6291</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="s">
-        <v>6292</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6" t="s">
-        <v>6293</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6" t="s">
-        <v>6294</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="s">
-        <v>6295</v>
+        <v>6298</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="s">
-        <v>6296</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6" t="s">
-        <v>6297</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="s">
-        <v>6298</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6" t="s">
-        <v>6299</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="s">
-        <v>6300</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="s">
-        <v>6301</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6" t="s">
-        <v>6302</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6" t="s">
-        <v>6303</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>6304</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6" t="s">
-        <v>6305</v>
+        <v>6308</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="s">
-        <v>6306</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6" t="s">
-        <v>6307</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6" t="s">
-        <v>6308</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6" t="s">
-        <v>6309</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6" t="s">
-        <v>6310</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6" t="s">
-        <v>6311</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="s">
-        <v>6312</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6" t="s">
-        <v>6313</v>
+        <v>6316</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6" t="s">
-        <v>6314</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6" t="s">
-        <v>6315</v>
+        <v>6318</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>6316</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="s">
-        <v>6317</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="s">
-        <v>6318</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="s">
-        <v>6319</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="s">
-        <v>6320</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="s">
-        <v>6321</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="s">
-        <v>6322</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="7" t="s">
-        <v>6323</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="7" t="s">
-        <v>6324</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="7" t="s">
-        <v>6325</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="7" t="s">
-        <v>6326</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="7" t="s">
-        <v>6327</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="7" t="s">
-        <v>6328</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="7" t="s">
-        <v>6329</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="7" t="s">
-        <v>6330</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="7" t="s">
-        <v>6331</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="7" t="s">
-        <v>6332</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="7" t="s">
-        <v>6333</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="7" t="s">
-        <v>6334</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="7" t="s">
-        <v>6335</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="7" t="s">
-        <v>6336</v>
+        <v>6339</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="7" t="s">
-        <v>6337</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="7" t="s">
-        <v>6338</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="7" t="s">
-        <v>6339</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="7" t="s">
-        <v>6340</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="7" t="s">
-        <v>6341</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="7" t="s">
-        <v>6342</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="7" t="s">
-        <v>6343</v>
+        <v>6346</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="7" t="s">
-        <v>6344</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="7" t="s">
-        <v>6345</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="7" t="s">
-        <v>6346</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="7" t="s">
-        <v>6347</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="7" t="s">
-        <v>6348</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="7" t="s">
-        <v>6349</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="7" t="s">
-        <v>6350</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="7" t="s">
-        <v>6351</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="7" t="s">
-        <v>6352</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="7" t="s">
-        <v>6353</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="7" t="s">
-        <v>6354</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="7" t="s">
-        <v>6355</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="7" t="s">
-        <v>6356</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="7" t="s">
-        <v>6357</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="7" t="s">
-        <v>6358</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="7" t="s">
-        <v>6359</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="7" t="s">
-        <v>6360</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="7" t="s">
-        <v>6361</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="7" t="s">
-        <v>6362</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="7" t="s">
-        <v>6363</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="7" t="s">
-        <v>6364</v>
+        <v>6367</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="7" t="s">
-        <v>6365</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="7" t="s">
-        <v>6366</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="7" t="s">
-        <v>6367</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="7" t="s">
-        <v>6368</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="7" t="s">
-        <v>6369</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="7" t="s">
-        <v>6370</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="7" t="s">
-        <v>6371</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="7" t="s">
-        <v>6372</v>
+        <v>6375</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="7" t="s">
-        <v>6373</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="7" t="s">
-        <v>6374</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="7" t="s">
-        <v>6375</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="7" t="s">
-        <v>6376</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="7" t="s">
-        <v>6377</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="7" t="s">
-        <v>6378</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="7" t="s">
-        <v>6379</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="7" t="s">
-        <v>6380</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="7" t="s">
-        <v>6381</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="7" t="s">
-        <v>6382</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="s">
-        <v>6383</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="s">
-        <v>6384</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="s">
-        <v>6385</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="s">
-        <v>6386</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="s">
-        <v>6387</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="s">
-        <v>6388</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="s">
-        <v>6389</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="s">
-        <v>6390</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="s">
-        <v>6391</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="s">
-        <v>6392</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="s">
-        <v>6393</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="s">
-        <v>6394</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="s">
-        <v>6395</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="s">
-        <v>6396</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="s">
-        <v>6397</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="s">
-        <v>6398</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="s">
-        <v>6399</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="s">
-        <v>6400</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="s">
-        <v>6401</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="s">
-        <v>6402</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="s">
-        <v>6403</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="s">
-        <v>6404</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="s">
-        <v>6405</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="s">
-        <v>6406</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="s">
-        <v>6407</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="s">
-        <v>6408</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="s">
-        <v>6409</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="s">
-        <v>6410</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="s">
-        <v>6411</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="s">
-        <v>6412</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="s">
-        <v>6413</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="s">
-        <v>6414</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="s">
-        <v>6415</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="s">
-        <v>6416</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="s">
-        <v>6417</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="s">
-        <v>6418</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="s">
-        <v>6419</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="s">
-        <v>6420</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="s">
-        <v>6421</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="s">
-        <v>6422</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="s">
-        <v>6423</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="s">
-        <v>6424</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="s">
-        <v>6425</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="s">
-        <v>6426</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="s">
-        <v>6427</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="s">
-        <v>6428</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="s">
-        <v>6429</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="s">
-        <v>6430</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="s">
-        <v>6431</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="s">
-        <v>6432</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="s">
-        <v>6433</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="s">
-        <v>6434</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="s">
-        <v>6435</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="s">
-        <v>6436</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="s">
-        <v>6437</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="s">
-        <v>6438</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="s">
-        <v>6439</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="s">
-        <v>6440</v>
+        <v>6443</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="s">
-        <v>6441</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="s">
-        <v>6442</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="s">
-        <v>6443</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="s">
-        <v>6444</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="7" t="s">
-        <v>6445</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="7" t="s">
-        <v>6446</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="7" t="s">
-        <v>6447</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="7" t="s">
-        <v>6448</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="7" t="s">
-        <v>6449</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="7" t="s">
-        <v>6450</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="7" t="s">
-        <v>6451</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="7" t="s">
-        <v>6452</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="7" t="s">
-        <v>6453</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="7" t="s">
-        <v>6454</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="7" t="s">
-        <v>6455</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="7" t="s">
-        <v>6456</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="7" t="s">
-        <v>6457</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="7" t="s">
-        <v>6458</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="7" t="s">
-        <v>6459</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="7" t="s">
-        <v>6460</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="7" t="s">
-        <v>6461</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="7" t="s">
-        <v>6462</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="7" t="s">
-        <v>6463</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="7" t="s">
-        <v>6464</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="7" t="s">
-        <v>6465</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="7" t="s">
-        <v>6466</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="7" t="s">
-        <v>6467</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="7" t="s">
-        <v>6468</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="7" t="s">
-        <v>6469</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="7" t="s">
-        <v>6470</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="7" t="s">
-        <v>6471</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="7" t="s">
-        <v>6472</v>
+        <v>6475</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="7" t="s">
-        <v>6473</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="7" t="s">
-        <v>6474</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="7" t="s">
-        <v>6475</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="7" t="s">
-        <v>6476</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="7" t="s">
-        <v>6477</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="7" t="s">
-        <v>6478</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="7" t="s">
-        <v>6479</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="7" t="s">
-        <v>6480</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="7" t="s">
-        <v>6481</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="7" t="s">
-        <v>6482</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="7" t="s">
-        <v>6483</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="7" t="s">
-        <v>6484</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="7" t="s">
-        <v>6485</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="7" t="s">
-        <v>6486</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="7" t="s">
-        <v>6487</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="7" t="s">
-        <v>6488</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="7" t="s">
-        <v>6489</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="7" t="s">
-        <v>6490</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="7" t="s">
-        <v>6491</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="7" t="s">
-        <v>6492</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="7" t="s">
-        <v>6493</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="7" t="s">
-        <v>6494</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="7" t="s">
-        <v>6495</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="7" t="s">
-        <v>6496</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="7" t="s">
-        <v>6497</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="7" t="s">
-        <v>6498</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="7" t="s">
-        <v>6499</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="7" t="s">
-        <v>6500</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="7" t="s">
-        <v>6501</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="7" t="s">
-        <v>6502</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="7" t="s">
-        <v>6503</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="7" t="s">
-        <v>6504</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="7" t="s">
-        <v>6505</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="7" t="s">
-        <v>6506</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="7" t="s">
-        <v>6507</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="7" t="s">
-        <v>6508</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="7" t="s">
-        <v>6509</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="7" t="s">
-        <v>6510</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="7" t="s">
-        <v>6511</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="7" t="s">
-        <v>6512</v>
+        <v>6515</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="7" t="s">
-        <v>6513</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="7" t="s">
-        <v>6514</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="7" t="s">
-        <v>6515</v>
+        <v>6518</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="7" t="s">
-        <v>6516</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="7" t="s">
-        <v>6517</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="7" t="s">
-        <v>6518</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="7" t="s">
-        <v>6519</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="7" t="s">
-        <v>6520</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="7" t="s">
-        <v>6521</v>
+        <v>6524</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="7" t="s">
-        <v>6522</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="7" t="s">
-        <v>6523</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="7" t="s">
-        <v>6524</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="7" t="s">
-        <v>6525</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="7" t="s">
-        <v>6526</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="7" t="s">
-        <v>6527</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="7" t="s">
-        <v>6528</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="7" t="s">
-        <v>6529</v>
+        <v>6532</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="7" t="s">
-        <v>6530</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="7" t="s">
-        <v>6531</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="7" t="s">
-        <v>6532</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="7" t="s">
-        <v>6533</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="7" t="s">
-        <v>6534</v>
+        <v>6537</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="7" t="s">
-        <v>6535</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="7" t="s">
-        <v>6536</v>
+        <v>6539</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="7" t="s">
-        <v>6537</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="7" t="s">
-        <v>6538</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="7" t="s">
-        <v>6539</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="7" t="s">
-        <v>6540</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="7" t="s">
-        <v>6541</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="7" t="s">
-        <v>6542</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="7" t="s">
-        <v>6543</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="7" t="s">
-        <v>6544</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="7" t="s">
-        <v>6545</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="7" t="s">
-        <v>6546</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="7" t="s">
-        <v>6547</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="7" t="s">
-        <v>6548</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="7" t="s">
-        <v>6549</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="7" t="s">
-        <v>6550</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="7" t="s">
-        <v>6551</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="7" t="s">
-        <v>6552</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="7" t="s">
-        <v>6553</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="7" t="s">
-        <v>6554</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="7" t="s">
-        <v>6555</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="7" t="s">
-        <v>6556</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="7" t="s">
-        <v>6557</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="7" t="s">
-        <v>6558</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="7" t="s">
-        <v>6559</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="7" t="s">
-        <v>6560</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="7" t="s">
-        <v>6561</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="7" t="s">
-        <v>6562</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="7" t="s">
-        <v>6563</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="7" t="s">
-        <v>6564</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="7" t="s">
-        <v>6565</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="7" t="s">
-        <v>6566</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="7" t="s">
-        <v>6567</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="7" t="s">
-        <v>6568</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="7" t="s">
-        <v>6569</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="7" t="s">
-        <v>6570</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="7" t="s">
-        <v>6571</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="7" t="s">
-        <v>6572</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="7" t="s">
-        <v>6573</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="7" t="s">
-        <v>6574</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="7" t="s">
-        <v>6575</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="7" t="s">
-        <v>6576</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="7" t="s">
-        <v>6577</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="7" t="s">
-        <v>6578</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="7" t="s">
-        <v>6579</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="7" t="s">
-        <v>6580</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="7" t="s">
-        <v>6581</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="7" t="s">
-        <v>6582</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="7" t="s">
-        <v>6583</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="7" t="s">
-        <v>6584</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="7" t="s">
-        <v>6585</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="7" t="s">
-        <v>6586</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="7" t="s">
-        <v>6587</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="7" t="s">
-        <v>6588</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="7" t="s">
-        <v>6589</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="7" t="s">
-        <v>6590</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="7" t="s">
-        <v>6591</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="7" t="s">
-        <v>6592</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="7" t="s">
-        <v>6593</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="7" t="s">
-        <v>6594</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="7" t="s">
-        <v>6595</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="7" t="s">
-        <v>6596</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="7" t="s">
-        <v>6597</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="7" t="s">
-        <v>6598</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="7" t="s">
-        <v>6599</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="7" t="s">
-        <v>6600</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="7" t="s">
-        <v>6601</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="7" t="s">
-        <v>6602</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="7" t="s">
-        <v>6603</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="7" t="s">
-        <v>6604</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="7" t="s">
-        <v>6605</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="7" t="s">
-        <v>6606</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="7" t="s">
-        <v>6607</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="7" t="s">
-        <v>6608</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="7" t="s">
-        <v>6609</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="7" t="s">
-        <v>6610</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="7" t="s">
-        <v>6611</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="7" t="s">
-        <v>6612</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="7" t="s">
-        <v>6613</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="7" t="s">
-        <v>6614</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="7" t="s">
-        <v>6615</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="7" t="s">
-        <v>6616</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="7" t="s">
-        <v>6617</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="7" t="s">
-        <v>6618</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="7" t="s">
-        <v>6619</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="7" t="s">
-        <v>6620</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="7" t="s">
-        <v>6621</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="7" t="s">
-        <v>6622</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="7" t="s">
-        <v>6623</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="7" t="s">
-        <v>6624</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="7" t="s">
-        <v>6625</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="7" t="s">
-        <v>6626</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="7" t="s">
-        <v>6627</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="7" t="s">
-        <v>6628</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="7" t="s">
-        <v>6629</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="7" t="s">
-        <v>6630</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="7" t="s">
-        <v>6631</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="7" t="s">
-        <v>6632</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="7" t="s">
-        <v>6633</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="7" t="s">
-        <v>6634</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="7" t="s">
-        <v>6635</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="7" t="s">
-        <v>6636</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="7" t="s">
-        <v>6637</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="7" t="s">
-        <v>6638</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="7" t="s">
-        <v>6639</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="7" t="s">
-        <v>6640</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="7" t="s">
-        <v>6641</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="7" t="s">
-        <v>6642</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="7" t="s">
-        <v>6643</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="7" t="s">
-        <v>6644</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="7" t="s">
-        <v>6645</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="7" t="s">
-        <v>6646</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="7" t="s">
-        <v>6647</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="7" t="s">
-        <v>6648</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="7" t="s">
-        <v>6649</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="7" t="s">
-        <v>6650</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="7" t="s">
-        <v>6651</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="7" t="s">
-        <v>6652</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="7" t="s">
-        <v>6653</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="7" t="s">
-        <v>6654</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="7" t="s">
-        <v>6655</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="7" t="s">
-        <v>6656</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="7" t="s">
-        <v>6657</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="7" t="s">
-        <v>6658</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="7" t="s">
-        <v>6659</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="7" t="s">
-        <v>6660</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="7" t="s">
-        <v>6661</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="7" t="s">
-        <v>6662</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="7" t="s">
-        <v>6663</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="7" t="s">
-        <v>6664</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="7" t="s">
-        <v>6665</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="7" t="s">
-        <v>6666</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="7" t="s">
-        <v>6667</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="7" t="s">
-        <v>6668</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="7" t="s">
-        <v>6669</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="7" t="s">
-        <v>6670</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="7" t="s">
-        <v>6671</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="7" t="s">
-        <v>6672</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="7" t="s">
-        <v>6673</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="7" t="s">
-        <v>6674</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="7" t="s">
-        <v>6675</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="7" t="s">
-        <v>6676</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="7" t="s">
-        <v>6677</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="7" t="s">
-        <v>6678</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="7" t="s">
-        <v>6679</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="7" t="s">
-        <v>6680</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="7" t="s">
-        <v>6681</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="7" t="s">
-        <v>6682</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="7" t="s">
-        <v>6683</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="7" t="s">
-        <v>6684</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="7" t="s">
-        <v>6685</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="7" t="s">
-        <v>6686</v>
+        <v>6689</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="7" t="s">
-        <v>6687</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="7" t="s">
-        <v>6688</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="7" t="s">
-        <v>6689</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="7" t="s">
-        <v>6690</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="7" t="s">
-        <v>6691</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="7" t="s">
-        <v>6692</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="7" t="s">
-        <v>6693</v>
+        <v>6696</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="7" t="s">
-        <v>6694</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="7" t="s">
-        <v>6695</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="7" t="s">
-        <v>6696</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="7" t="s">
-        <v>6697</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="7" t="s">
-        <v>6698</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="7" t="s">
-        <v>6699</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="7" t="s">
-        <v>6700</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="7" t="s">
-        <v>6701</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="7" t="s">
-        <v>6702</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="7" t="s">
-        <v>6703</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="7" t="s">
-        <v>6704</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="7" t="s">
-        <v>6705</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="7" t="s">
-        <v>6706</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="7" t="s">
-        <v>6707</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="7" t="s">
-        <v>6708</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="7" t="s">
-        <v>6709</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="7" t="s">
-        <v>6710</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="7" t="s">
-        <v>6711</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="7" t="s">
-        <v>6712</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="7" t="s">
-        <v>6713</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="7" t="s">
-        <v>6714</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="7" t="s">
-        <v>6715</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="7" t="s">
-        <v>6716</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="7" t="s">
-        <v>6717</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="7" t="s">
-        <v>6718</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="7" t="s">
-        <v>6719</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="7" t="s">
-        <v>6720</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="7" t="s">
-        <v>6721</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="7" t="s">
-        <v>6722</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="7" t="s">
-        <v>6723</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="7" t="s">
-        <v>6724</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="7" t="s">
-        <v>6725</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="7" t="s">
-        <v>6726</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="7" t="s">
-        <v>6727</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="7" t="s">
-        <v>6728</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="7" t="s">
-        <v>6729</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="7" t="s">
-        <v>6730</v>
+        <v>6733</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="7" t="s">
-        <v>6731</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="7" t="s">
-        <v>6732</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="7" t="s">
-        <v>6733</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="7" t="s">
-        <v>6734</v>
+        <v>6737</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="7" t="s">
-        <v>6735</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="7" t="s">
-        <v>6736</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="7" t="s">
-        <v>6737</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="7" t="s">
-        <v>6738</v>
+        <v>6741</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="7" t="s">
-        <v>6739</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="7" t="s">
-        <v>6740</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="7" t="s">
-        <v>6741</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="7" t="s">
-        <v>6742</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="7" t="s">
-        <v>6743</v>
+        <v>6746</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="7" t="s">
-        <v>6744</v>
+        <v>6747</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="7" t="s">
-        <v>6745</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="7" t="s">
-        <v>6746</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="7" t="s">
-        <v>6747</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="7" t="s">
-        <v>6748</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="7" t="s">
-        <v>6749</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="7" t="s">
-        <v>6750</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="7" t="s">
-        <v>6751</v>
+        <v>6754</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="7" t="s">
-        <v>6752</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="7" t="s">
-        <v>6753</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="7" t="s">
-        <v>6754</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="7" t="s">
-        <v>6755</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="7" t="s">
-        <v>6756</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="7" t="s">
-        <v>6757</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="7" t="s">
-        <v>6758</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="7" t="s">
-        <v>6759</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="7" t="s">
-        <v>6760</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="7" t="s">
-        <v>6761</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="7" t="s">
-        <v>6762</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="7" t="s">
-        <v>6763</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="7" t="s">
-        <v>6764</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="7" t="s">
-        <v>6765</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="7" t="s">
-        <v>6766</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="7" t="s">
-        <v>6767</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="7" t="s">
-        <v>6768</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="7" t="s">
-        <v>6769</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="7" t="s">
-        <v>6770</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="7" t="s">
-        <v>6771</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="7" t="s">
-        <v>6772</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="7" t="s">
-        <v>6773</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="7" t="s">
-        <v>6774</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="7" t="s">
-        <v>6775</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="7" t="s">
-        <v>6776</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="7" t="s">
-        <v>6777</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="7" t="s">
-        <v>6778</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="7" t="s">
-        <v>6779</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="7" t="s">
-        <v>6780</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="7" t="s">
-        <v>6781</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="7" t="s">
-        <v>6782</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="7" t="s">
-        <v>6783</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="7" t="s">
-        <v>6784</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="7" t="s">
-        <v>6785</v>
+        <v>6788</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="7" t="s">
-        <v>6786</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="7" t="s">
-        <v>6787</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="7" t="s">
-        <v>6788</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="7" t="s">
-        <v>6789</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="7" t="s">
-        <v>6790</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="7" t="s">
-        <v>6791</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="7" t="s">
-        <v>6792</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="7" t="s">
-        <v>6793</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="7" t="s">
-        <v>6794</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="7" t="s">
-        <v>6795</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="7" t="s">
-        <v>6796</v>
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="6" t="s">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="6" t="s">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="6" t="s">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="6" t="s">
+        <v>6803</v>
       </c>
     </row>
   </sheetData>
@@ -44789,7 +44830,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.88"/>
+    <col customWidth="1" min="1" max="1" width="32.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -57260,6 +57301,21 @@
         <v>5408</v>
       </c>
     </row>
+    <row r="829">
+      <c r="A829" s="6" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="6" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="6" t="s">
+        <v>5411</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -57285,3352 +57341,3352 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>5409</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>5410</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>5411</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>5412</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>5413</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>5414</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>5415</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>5416</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>5417</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>5418</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>5419</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>5420</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>5421</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>5422</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>5423</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>5424</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>5425</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>5426</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>5427</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>5428</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>5429</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>5430</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>5431</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>5432</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>5433</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>5434</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>5435</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>5436</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>5437</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>5438</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>5439</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>5440</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>5441</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>5442</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>5443</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>5444</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>5445</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>5446</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>5447</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>5448</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>5449</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>5450</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>5451</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>5452</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>5453</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>5454</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>5455</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>5456</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>5457</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>5458</v>
+        <v>5461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>5459</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>5460</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>5461</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>5462</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>5463</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>5464</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>5465</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>5466</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>5467</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>5468</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>5469</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>5470</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>5471</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>5472</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>5473</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>5474</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>5475</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>5476</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>5477</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>5478</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>5479</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>5480</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>5481</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>5482</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>5483</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>5484</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>5485</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>5486</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>5487</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
-        <v>5488</v>
+        <v>5491</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>5489</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>5490</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
-        <v>5491</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>5492</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="s">
-        <v>5493</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>5494</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>5495</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>5496</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>5497</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
-        <v>5498</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>5499</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>5500</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>5501</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>5502</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>5503</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>5504</v>
+        <v>5507</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>5505</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>5506</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="s">
-        <v>5507</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>5508</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>5509</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
-        <v>5510</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="s">
-        <v>5511</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>5512</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
-        <v>5513</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="s">
-        <v>5514</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="s">
-        <v>5515</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="s">
-        <v>5516</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="s">
-        <v>5517</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="s">
-        <v>5518</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="s">
-        <v>5519</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="s">
-        <v>5520</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>5521</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="s">
-        <v>5522</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
-        <v>5523</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="s">
-        <v>5524</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="s">
-        <v>5525</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
-        <v>5526</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="s">
-        <v>5527</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="s">
-        <v>5528</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="s">
-        <v>5529</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="s">
-        <v>5530</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
-        <v>5531</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
-        <v>5532</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="s">
-        <v>5533</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>5534</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
-        <v>5535</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="s">
-        <v>5536</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6" t="s">
-        <v>5537</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="s">
-        <v>5538</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
-        <v>5539</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="s">
-        <v>5540</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
-        <v>5541</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="s">
-        <v>5542</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="s">
-        <v>5543</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="s">
-        <v>5544</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="s">
-        <v>5545</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>5546</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="s">
-        <v>5547</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
-        <v>5548</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="s">
-        <v>5549</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
-        <v>5550</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="s">
-        <v>5551</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="s">
-        <v>5552</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="s">
-        <v>5553</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="s">
-        <v>5554</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="s">
-        <v>5555</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="s">
-        <v>5556</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="s">
-        <v>5557</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="s">
-        <v>5558</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>5559</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="s">
-        <v>5560</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="s">
-        <v>5561</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="s">
-        <v>5562</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="s">
-        <v>5563</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="s">
-        <v>5564</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="s">
-        <v>5565</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="s">
-        <v>5566</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="s">
-        <v>5567</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="s">
-        <v>5568</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="s">
-        <v>5569</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="s">
-        <v>5570</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>5571</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="s">
-        <v>5572</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="s">
-        <v>5573</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="s">
-        <v>5574</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="s">
-        <v>5575</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="s">
-        <v>5576</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="s">
-        <v>5577</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="s">
-        <v>5578</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="s">
-        <v>5579</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="s">
-        <v>5580</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="s">
-        <v>5581</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="s">
-        <v>5582</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="s">
-        <v>5583</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>5584</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6" t="s">
-        <v>5585</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="s">
-        <v>5586</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="s">
-        <v>5587</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="s">
-        <v>5588</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="s">
-        <v>5589</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6" t="s">
-        <v>5590</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="s">
-        <v>5591</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6" t="s">
-        <v>5592</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="s">
-        <v>5593</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="s">
-        <v>5594</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="s">
-        <v>5595</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>5596</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6" t="s">
-        <v>5597</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="s">
-        <v>5598</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="s">
-        <v>5599</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="s">
-        <v>5600</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="s">
-        <v>5601</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="s">
-        <v>5602</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="s">
-        <v>5603</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6" t="s">
-        <v>5604</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="s">
-        <v>5605</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6" t="s">
-        <v>5606</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6" t="s">
-        <v>5607</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6" t="s">
-        <v>5608</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>5609</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="s">
-        <v>5610</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="s">
-        <v>5611</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6" t="s">
-        <v>5612</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="s">
-        <v>5613</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6" t="s">
-        <v>5614</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="s">
-        <v>5615</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="s">
-        <v>5616</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="s">
-        <v>5617</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="s">
-        <v>5618</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="s">
-        <v>5619</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6" t="s">
-        <v>5620</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>5621</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6" t="s">
-        <v>5622</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="s">
-        <v>5623</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6" t="s">
-        <v>5624</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6" t="s">
-        <v>5625</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6" t="s">
-        <v>5626</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6" t="s">
-        <v>5627</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="s">
-        <v>5628</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6" t="s">
-        <v>5629</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="s">
-        <v>5630</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="s">
-        <v>5631</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="s">
-        <v>5632</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6" t="s">
-        <v>5633</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>5634</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6" t="s">
-        <v>5635</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6" t="s">
-        <v>5636</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6" t="s">
-        <v>5637</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="s">
-        <v>5638</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6" t="s">
-        <v>5639</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6" t="s">
-        <v>5640</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="s">
-        <v>5641</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="s">
-        <v>5642</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="s">
-        <v>5643</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6" t="s">
-        <v>5644</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6" t="s">
-        <v>5645</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>5646</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="s">
-        <v>5647</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6" t="s">
-        <v>5648</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6" t="s">
-        <v>5649</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="s">
-        <v>5650</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="s">
-        <v>5651</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6" t="s">
-        <v>5652</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="s">
-        <v>5653</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6" t="s">
-        <v>5654</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="s">
-        <v>5655</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="s">
-        <v>5656</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6" t="s">
-        <v>5657</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6" t="s">
-        <v>5658</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>5659</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6" t="s">
-        <v>5660</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="s">
-        <v>5661</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6" t="s">
-        <v>5662</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6" t="s">
-        <v>5663</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6" t="s">
-        <v>5664</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6" t="s">
-        <v>5665</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6" t="s">
-        <v>5666</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="s">
-        <v>5667</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6" t="s">
-        <v>5668</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6" t="s">
-        <v>5669</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6" t="s">
-        <v>5670</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>5671</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="s">
-        <v>5672</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="s">
-        <v>5673</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="s">
-        <v>5674</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="s">
-        <v>5675</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="s">
-        <v>5676</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="s">
-        <v>5677</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="7" t="s">
-        <v>5678</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="7" t="s">
-        <v>5679</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="7" t="s">
-        <v>5680</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="7" t="s">
-        <v>5416</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="7" t="s">
-        <v>5681</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="7" t="s">
-        <v>5682</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="7" t="s">
-        <v>5683</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="7" t="s">
-        <v>5684</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="7" t="s">
-        <v>5685</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="7" t="s">
-        <v>5422</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="7" t="s">
-        <v>5686</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="7" t="s">
-        <v>5687</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="7" t="s">
-        <v>5688</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="7" t="s">
-        <v>5689</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="7" t="s">
-        <v>5690</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="7" t="s">
-        <v>5691</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="7" t="s">
-        <v>5692</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="7" t="s">
-        <v>5693</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="7" t="s">
-        <v>5694</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="7" t="s">
-        <v>5419</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="7" t="s">
-        <v>5695</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="7" t="s">
-        <v>5449</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="7" t="s">
-        <v>5696</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="7" t="s">
-        <v>5418</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="7" t="s">
-        <v>5697</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="7" t="s">
-        <v>5421</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="7" t="s">
-        <v>5698</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="7" t="s">
-        <v>5453</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="7" t="s">
-        <v>5699</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="7" t="s">
-        <v>5455</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="7" t="s">
-        <v>5700</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="7" t="s">
-        <v>5469</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="7" t="s">
-        <v>5701</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="7" t="s">
-        <v>5702</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="7" t="s">
-        <v>5703</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="7" t="s">
-        <v>5704</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="7" t="s">
-        <v>5705</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="7" t="s">
-        <v>5706</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="7" t="s">
-        <v>5707</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="7" t="s">
-        <v>5708</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="7" t="s">
-        <v>5709</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="7" t="s">
-        <v>5462</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="7" t="s">
-        <v>5710</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="7" t="s">
-        <v>5424</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="7" t="s">
-        <v>5711</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="7" t="s">
-        <v>5593</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="7" t="s">
-        <v>5712</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="7" t="s">
-        <v>5461</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="7" t="s">
-        <v>5713</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="7" t="s">
-        <v>5413</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="7" t="s">
-        <v>5714</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="7" t="s">
-        <v>5464</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="7" t="s">
-        <v>5715</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="7" t="s">
-        <v>5716</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="7" t="s">
-        <v>5717</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="7" t="s">
-        <v>5718</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="7" t="s">
-        <v>5719</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="7" t="s">
-        <v>5720</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="7" t="s">
-        <v>5721</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="7" t="s">
-        <v>5722</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="s">
-        <v>5723</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="s">
-        <v>5724</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="s">
-        <v>5725</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="s">
-        <v>5726</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="s">
-        <v>5727</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="s">
-        <v>5728</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="s">
-        <v>5729</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="s">
-        <v>5730</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="s">
-        <v>5731</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="s">
-        <v>5503</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="s">
-        <v>5732</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="s">
-        <v>5450</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="s">
-        <v>5733</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="s">
-        <v>5430</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="s">
-        <v>5734</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="s">
-        <v>5735</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="s">
-        <v>5736</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="s">
-        <v>5454</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="s">
-        <v>5737</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="s">
-        <v>5738</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="s">
-        <v>5739</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="s">
-        <v>5470</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="s">
-        <v>5740</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="s">
-        <v>5741</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="s">
-        <v>5742</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="s">
-        <v>5743</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="s">
-        <v>5744</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="s">
-        <v>5745</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="s">
-        <v>5746</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="s">
-        <v>5747</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="s">
-        <v>5748</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="s">
-        <v>5463</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="s">
-        <v>5749</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="s">
-        <v>5750</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="s">
-        <v>5751</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="s">
-        <v>5752</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="s">
-        <v>5753</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="s">
-        <v>5754</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="s">
-        <v>5755</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="s">
-        <v>5756</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="s">
-        <v>5757</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="s">
-        <v>5758</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="s">
-        <v>5759</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="s">
-        <v>5760</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="s">
-        <v>5761</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="s">
-        <v>5762</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="s">
-        <v>5763</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="s">
-        <v>5764</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="s">
-        <v>5765</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="s">
-        <v>5766</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="s">
-        <v>5767</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="s">
-        <v>5768</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="s">
-        <v>5769</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="s">
-        <v>5770</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="s">
-        <v>5771</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="s">
-        <v>5772</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="s">
-        <v>5773</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="s">
-        <v>5774</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="s">
-        <v>5775</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="s">
-        <v>5776</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="s">
-        <v>5777</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="s">
-        <v>5778</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="7" t="s">
-        <v>5779</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="7" t="s">
-        <v>5780</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="7" t="s">
-        <v>5781</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="7" t="s">
-        <v>5782</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="7" t="s">
-        <v>5783</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="7" t="s">
-        <v>5784</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="7" t="s">
-        <v>5785</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="7" t="s">
-        <v>5786</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="7" t="s">
-        <v>5787</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="7" t="s">
-        <v>5788</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="7" t="s">
-        <v>5789</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="7" t="s">
-        <v>5790</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="7" t="s">
-        <v>5791</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="7" t="s">
-        <v>5792</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="7" t="s">
-        <v>5793</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="7" t="s">
-        <v>5794</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="7" t="s">
-        <v>5795</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="7" t="s">
-        <v>5796</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="7" t="s">
-        <v>5797</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="7" t="s">
-        <v>5798</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="7" t="s">
-        <v>5799</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="7" t="s">
-        <v>5800</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="7" t="s">
-        <v>5801</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="7" t="s">
-        <v>5802</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="7" t="s">
-        <v>5803</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="7" t="s">
-        <v>5804</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="7" t="s">
-        <v>5805</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="7" t="s">
-        <v>5806</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="7" t="s">
-        <v>5807</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="7" t="s">
-        <v>5808</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="7" t="s">
-        <v>5809</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="7" t="s">
-        <v>5810</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="7" t="s">
-        <v>5811</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="7" t="s">
-        <v>5812</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="7" t="s">
-        <v>5813</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="7" t="s">
-        <v>5814</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="7" t="s">
-        <v>5815</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="7" t="s">
-        <v>5816</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="7" t="s">
-        <v>5817</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="7" t="s">
-        <v>5451</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="7" t="s">
-        <v>5818</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="7" t="s">
-        <v>5432</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="7" t="s">
-        <v>5819</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="7" t="s">
-        <v>5820</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="7" t="s">
-        <v>5821</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="7" t="s">
-        <v>5822</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="7" t="s">
-        <v>5823</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="7" t="s">
-        <v>5824</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="7" t="s">
-        <v>5825</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="7" t="s">
-        <v>5826</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="7" t="s">
-        <v>5827</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="7" t="s">
-        <v>5828</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="7" t="s">
-        <v>5829</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="7" t="s">
-        <v>5830</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="7" t="s">
-        <v>5831</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="7" t="s">
-        <v>5832</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="7" t="s">
-        <v>5833</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="7" t="s">
-        <v>5834</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="7" t="s">
-        <v>5835</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="7" t="s">
-        <v>5591</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="7" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="7" t="s">
-        <v>5447</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="7" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="7" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="7" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="7" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="7" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="7" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="7" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="7" t="s">
-        <v>5844</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="7" t="s">
-        <v>5845</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="7" t="s">
-        <v>5846</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="7" t="s">
-        <v>5847</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="7" t="s">
-        <v>5848</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="7" t="s">
-        <v>5849</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="7" t="s">
-        <v>5850</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="7" t="s">
-        <v>5851</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="7" t="s">
-        <v>5852</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="7" t="s">
-        <v>5853</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="7" t="s">
-        <v>5854</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="7" t="s">
-        <v>5855</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="7" t="s">
-        <v>5856</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="7" t="s">
-        <v>5857</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="7" t="s">
-        <v>5858</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="7" t="s">
-        <v>5859</v>
+        <v>5862</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="7" t="s">
-        <v>5860</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="7" t="s">
-        <v>5861</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="7" t="s">
-        <v>5862</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="7" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="7" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="7" t="s">
-        <v>5865</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="7" t="s">
-        <v>5866</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="7" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="7" t="s">
-        <v>5868</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="7" t="s">
-        <v>5869</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="7" t="s">
-        <v>5870</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="7" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="7" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="7" t="s">
-        <v>5873</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="7" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="7" t="s">
-        <v>5875</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="7" t="s">
-        <v>5876</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="7" t="s">
-        <v>5877</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="7" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="7" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="7" t="s">
-        <v>5880</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="7" t="s">
-        <v>5881</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="7" t="s">
-        <v>5882</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="7" t="s">
-        <v>5883</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="7" t="s">
-        <v>5884</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="7" t="s">
-        <v>5885</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="7" t="s">
-        <v>5886</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="7" t="s">
-        <v>5887</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="7" t="s">
-        <v>5888</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="7" t="s">
-        <v>5889</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="7" t="s">
-        <v>5890</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="7" t="s">
-        <v>5891</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="7" t="s">
-        <v>5892</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="7" t="s">
-        <v>5893</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="7" t="s">
-        <v>5894</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="7" t="s">
-        <v>5895</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="7" t="s">
-        <v>5896</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="7" t="s">
-        <v>5897</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="7" t="s">
-        <v>5898</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="7" t="s">
-        <v>5899</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="7" t="s">
-        <v>5900</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="7" t="s">
-        <v>5901</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="7" t="s">
-        <v>5902</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="7" t="s">
-        <v>5903</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="7" t="s">
-        <v>5904</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="7" t="s">
-        <v>5905</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="7" t="s">
-        <v>5906</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="7" t="s">
-        <v>5907</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="7" t="s">
-        <v>5908</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="7" t="s">
-        <v>5909</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="7" t="s">
-        <v>5910</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="7" t="s">
-        <v>5911</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="7" t="s">
-        <v>5912</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="7" t="s">
-        <v>5913</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="7" t="s">
-        <v>5914</v>
+        <v>5917</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="7" t="s">
-        <v>5915</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="7" t="s">
-        <v>5916</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="7" t="s">
-        <v>5917</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="7" t="s">
-        <v>5918</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="7" t="s">
-        <v>5919</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="7" t="s">
-        <v>5920</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="7" t="s">
-        <v>5921</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="7" t="s">
-        <v>5922</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="7" t="s">
-        <v>5923</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="7" t="s">
-        <v>5924</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="7" t="s">
-        <v>5925</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="7" t="s">
-        <v>5926</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="7" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="7" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="7" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="7" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="7" t="s">
-        <v>5931</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="7" t="s">
-        <v>5932</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="7" t="s">
-        <v>5933</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="7" t="s">
-        <v>5934</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="7" t="s">
-        <v>5935</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="7" t="s">
-        <v>5936</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="7" t="s">
-        <v>5937</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="7" t="s">
-        <v>5938</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="7" t="s">
-        <v>5939</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="7" t="s">
-        <v>5940</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="7" t="s">
-        <v>5941</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="7" t="s">
-        <v>5942</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="7" t="s">
-        <v>5943</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="7" t="s">
-        <v>5944</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="7" t="s">
-        <v>5945</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="7" t="s">
-        <v>5946</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="7" t="s">
-        <v>5947</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="7" t="s">
-        <v>5948</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="7" t="s">
-        <v>5949</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="7" t="s">
-        <v>5950</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="7" t="s">
-        <v>5951</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="7" t="s">
-        <v>5952</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="7" t="s">
-        <v>5953</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="7" t="s">
-        <v>5954</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="7" t="s">
-        <v>5955</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="7" t="s">
-        <v>5956</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="7" t="s">
-        <v>5957</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="7" t="s">
-        <v>5958</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="7" t="s">
-        <v>5959</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="7" t="s">
-        <v>5960</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="7" t="s">
-        <v>5961</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="7" t="s">
-        <v>5962</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="7" t="s">
-        <v>5963</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="7" t="s">
-        <v>5964</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="7" t="s">
-        <v>5965</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="7" t="s">
-        <v>5966</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="7" t="s">
-        <v>5967</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="7" t="s">
-        <v>5968</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="7" t="s">
-        <v>5969</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="7" t="s">
-        <v>5970</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="7" t="s">
-        <v>5971</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="7" t="s">
-        <v>5972</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="7" t="s">
-        <v>5973</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="7" t="s">
-        <v>5974</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="7" t="s">
-        <v>5975</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="7" t="s">
-        <v>5976</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="7" t="s">
-        <v>5977</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="7" t="s">
-        <v>5978</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="7" t="s">
-        <v>5979</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="7" t="s">
-        <v>5980</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="7" t="s">
-        <v>5981</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="7" t="s">
-        <v>5982</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="7" t="s">
-        <v>5983</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="7" t="s">
-        <v>5984</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="7" t="s">
-        <v>5985</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="7" t="s">
-        <v>5986</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="7" t="s">
-        <v>5987</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="7" t="s">
-        <v>5988</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="7" t="s">
-        <v>5989</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="7" t="s">
-        <v>5990</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="7" t="s">
-        <v>5991</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="7" t="s">
-        <v>5992</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="7" t="s">
-        <v>5993</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="7" t="s">
-        <v>5994</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="7" t="s">
-        <v>5995</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="7" t="s">
-        <v>5996</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="7" t="s">
-        <v>5997</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="7" t="s">
-        <v>5998</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="7" t="s">
-        <v>5999</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="7" t="s">
-        <v>6000</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="7" t="s">
-        <v>6001</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="7" t="s">
-        <v>6002</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="7" t="s">
-        <v>6003</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="7" t="s">
-        <v>6004</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="7" t="s">
-        <v>6005</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="7" t="s">
-        <v>6006</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="7" t="s">
-        <v>6007</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="7" t="s">
-        <v>6008</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="7" t="s">
-        <v>6009</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="7" t="s">
-        <v>6010</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="7" t="s">
-        <v>6011</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="7" t="s">
-        <v>6012</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="7" t="s">
-        <v>6013</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="7" t="s">
-        <v>6014</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="7" t="s">
-        <v>6015</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="7" t="s">
-        <v>6016</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="7" t="s">
-        <v>6017</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="7" t="s">
-        <v>6018</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="7" t="s">
-        <v>6019</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="7" t="s">
-        <v>6020</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="7" t="s">
-        <v>6021</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="7" t="s">
-        <v>6022</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="7" t="s">
-        <v>6023</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="7" t="s">
-        <v>6024</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="7" t="s">
-        <v>6025</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="7" t="s">
-        <v>6026</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="7" t="s">
-        <v>6027</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="7" t="s">
-        <v>6028</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="7" t="s">
-        <v>6029</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="7" t="s">
-        <v>6030</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="7" t="s">
-        <v>6031</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="7" t="s">
-        <v>6032</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="7" t="s">
-        <v>6033</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="7" t="s">
-        <v>6034</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="7" t="s">
-        <v>6035</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="7" t="s">
-        <v>6036</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="7" t="s">
-        <v>6037</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="7" t="s">
-        <v>6038</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="7" t="s">
-        <v>6039</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="7" t="s">
-        <v>6040</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="7" t="s">
-        <v>6041</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="7" t="s">
-        <v>6042</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="7" t="s">
-        <v>6043</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="7" t="s">
-        <v>6044</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="7" t="s">
-        <v>6045</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="7" t="s">
-        <v>6046</v>
+        <v>6049</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="7" t="s">
-        <v>6047</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="7" t="s">
-        <v>6048</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="7" t="s">
-        <v>6049</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="7" t="s">
-        <v>6050</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="7" t="s">
-        <v>6051</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="7" t="s">
-        <v>6052</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="7" t="s">
-        <v>6053</v>
+        <v>6056</v>
       </c>
     </row>
   </sheetData>
